--- a/utils/cleaners/Evaluación directivos colegios Coding For Kids (respuestas).xlsx
+++ b/utils/cleaners/Evaluación directivos colegios Coding For Kids (respuestas).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13540" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15139" uniqueCount="1193">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -3342,6 +3342,346 @@
   </si>
   <si>
     <t>Incentivar al estudiante en ser creativos, que las necesidades llevan a nuevos  descubrimientos.</t>
+  </si>
+  <si>
+    <t>MANEJO DE DE NUEVAS TECNOLOGÍAS</t>
+  </si>
+  <si>
+    <t>Uso de redes sociales</t>
+  </si>
+  <si>
+    <t>Las estudiantes no saben utilizar las redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nociones de programación </t>
+  </si>
+  <si>
+    <t>258 mas o menos</t>
+  </si>
+  <si>
+    <t>mas o menos. 8</t>
+  </si>
+  <si>
+    <t>mas o menos 45</t>
+  </si>
+  <si>
+    <t>pensamiento computacional</t>
+  </si>
+  <si>
+    <t>Normatividad vigente en uso de redes</t>
+  </si>
+  <si>
+    <t>Programación y pensamiento computacional</t>
+  </si>
+  <si>
+    <t>Programacion para la solucion de problemas</t>
+  </si>
+  <si>
+    <t>Desarrollo del pensamiento logico en la resolucion de problems</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Pensamiento computacional, programación por bloques, actividades sin conexión y algoritmos.</t>
+  </si>
+  <si>
+    <t>Sólo los docentes de tecnología e informática trabajan estas temáticas.</t>
+  </si>
+  <si>
+    <t>No esta establecido</t>
+  </si>
+  <si>
+    <t>Actuallización de usos de las tics en todos los niveles</t>
+  </si>
+  <si>
+    <t>Seguimiento y terminación de los capacitaciones</t>
+  </si>
+  <si>
+    <t>Todo esta incluído</t>
+  </si>
+  <si>
+    <t>Programación - manejo de herramientas web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguridad digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear cultura digital </t>
+  </si>
+  <si>
+    <t>Manejo de Excel, word, Powerpoint, paint, internet, publisher, redes sociales, correos electrónicos, creación de videos.</t>
+  </si>
+  <si>
+    <t>Las preguntas de estadística me tomaron de sorpresa.</t>
+  </si>
+  <si>
+    <t>Solo hubo dos opciones en las anteriores preguntas, lo cual no es computacional, no es real.</t>
+  </si>
+  <si>
+    <t>Capacitaciones sobre pensamiento computacional.</t>
+  </si>
+  <si>
+    <t>Desallo computacional y tecnologico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progracion. Proyectos de electrónica y Robótica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me parece de suma importancia cambiar la programación de  tec. E informática en la institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensamiento tecnológico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar seguimiento continuó al programa </t>
+  </si>
+  <si>
+    <t>Capacitación para el trabajo, E learning</t>
+  </si>
+  <si>
+    <t>Pensamiento computacionql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 estudiantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayudas audiovisuales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mejorar los equipos tecnológicos de la institución </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institucionalmente no se maneja pensamiento computacional </t>
+  </si>
+  <si>
+    <t>Manejo básico del computador y el paquete ofimático.</t>
+  </si>
+  <si>
+    <t>Habilidades tecnologicas. Pensamiento critico. Desarrollo de problemas</t>
+  </si>
+  <si>
+    <t>El penaamiento computacional es un area naciente que debemos implementar de la mejor manera</t>
+  </si>
+  <si>
+    <t>creacion de software</t>
+  </si>
+  <si>
+    <t>Pensamiento computacional y programación</t>
+  </si>
+  <si>
+    <t>Capacidad para discernir las falsas noticias de las reales. También preparar  a los estudiantes para que no sean víctimas de ningún tipo de manipulación (psicosocial, sexual, informática, etc)</t>
+  </si>
+  <si>
+    <t>Agradezco la presencia de este programa en la institución, por su gran relevancia</t>
+  </si>
+  <si>
+    <t>Como Rector no incido mucho en aspectos vocacionales, pero los docentes de informática sí realizan labores de motivación para que puedan continuar sus estudios en áreas relacionadas con el pensamiento computacional. Aunque coloqué que los docentes no incorporan el pensamiento computacional en sus clases, sí lo hacen una minoría.</t>
+  </si>
+  <si>
+    <t>El MEN ha realizado muchas capacitaciones en torno al tema y los docentes han participado activamente. Igualmente utilizamos plataformas virtuales a nivel de procesos académicos.</t>
+  </si>
+  <si>
+    <t>Relacionar con las areas basicas y transversales</t>
+  </si>
+  <si>
+    <t>Es decir que la tecnologia pueda estar integrada en todas las areas</t>
+  </si>
+  <si>
+    <t>Es importante la informacion acerca de los programas para compartir a estudiantes</t>
+  </si>
+  <si>
+    <t>Pensamiento Computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionar con la vida cotidiana </t>
+  </si>
+  <si>
+    <t>Manejar las TIC en todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facilita los procesos educativos. Simplifica las tareas domésticas. Facilita la comunicación . Nuevos empleos. Acceso rápido a la información.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con el pensamiento computacional se desarrollan habilidades relacionadas con la resolución de problemas </t>
+  </si>
+  <si>
+    <t>Aunque es un concepto relativamente nuevo ya que todas las personas desarrollan habilidades propias del ámbito computacional,  permite el pensamiento crítico ya que se puede orientar hacia la inclusión de cursos e incluirlo en el currículo y planes de estudio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Más que conceptos se necesita práctica </t>
+  </si>
+  <si>
+    <t>Responder número aproximado de estudiantes en todos los aspectos es poco acertivo, puesto que en mi caso el coordinador de la mañana tiene sus propios procesos y en la tarde también. Somos dos coordinadores en la misma sede. Responder por el es poco ético de mi parte.</t>
+  </si>
+  <si>
+    <t>En la institución no existe sala de informática ni se ha dado uso a la sala steam</t>
+  </si>
+  <si>
+    <t>Lógica de programación.</t>
+  </si>
+  <si>
+    <t>Se debe incluir la preparación de los estudiantes para la vida que la informática prepararlos</t>
+  </si>
+  <si>
+    <t>La pregunta de discapacidades es muy fuerte deberían replantear</t>
+  </si>
+  <si>
+    <t>Asesor académico.</t>
+  </si>
+  <si>
+    <t>Capacitación y practicas pedagógicas docentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensamiento computacional, robótica, biotecnología, redes, entre otros </t>
+  </si>
+  <si>
+    <t>Los insumos y material de consulta para todas las áreas, incluido el internet.</t>
+  </si>
+  <si>
+    <t>El compromiso del todo el personal directivo es importante</t>
+  </si>
+  <si>
+    <t>Diseño de programación y mantenimiento de equipos</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>Que nos pongan internet.</t>
+  </si>
+  <si>
+    <t>Capacitación constante de los docentes del área.</t>
+  </si>
+  <si>
+    <t>Importante que nos den internet, sin eso estamos graves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temas lúdicos, recreativos y conceptuales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todo lo que represente innovación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovación y didactica </t>
+  </si>
+  <si>
+    <t>programación y diseño</t>
+  </si>
+  <si>
+    <t>que exista interdisciplinariedad entre los programas y las diferentes áreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tener en cuenta todos por proyectos que envía SED y no saturar de trabajo </t>
+  </si>
+  <si>
+    <t>Robótica</t>
+  </si>
+  <si>
+    <t>Programacion. Mantenimiento de equips. Redes</t>
+  </si>
+  <si>
+    <t>La IE tiene un enfoque en ciencias Del mar por estar en zona pacifica y tener el mar pacifico Como su principal fuente de economia de la region</t>
+  </si>
+  <si>
+    <t>Programación, manejo adecuado de redes sociales</t>
+  </si>
+  <si>
+    <t>Programación y habilidades tic</t>
+  </si>
+  <si>
+    <t>La sede abarca poblacion mayirmente indigena awa y victima de conflicto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El pensamiento conputciinal es nuevo y estamis en proceso de implementar las habilidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de programas, aplicaciones,  metaverso </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante desarrollar competencias del ser frente a las necesidades propias de la apropiación  tecnológica </t>
+  </si>
+  <si>
+    <t>Es una gran necesidad implementar estas herramientas en los educandos.</t>
+  </si>
+  <si>
+    <t>Manejo de datos, sistemas de información, redes de aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofimática, robotica y programacion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estan claramente expresados. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escasos equipos tecnológicos, conectividad y acceso hacen dificil el proceso de replica de pensamiento computacional. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La programación y todo lo relacionado a la Robótica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La institución ya ha venido trabajando en proyectos de robótica </t>
+  </si>
+  <si>
+    <t>Aún no están diagnosticados.</t>
+  </si>
+  <si>
+    <t>Todas las habilidades del pensamientos computacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es muy importante contar con conocimientos sobre programación para orientar a los y las estudiantes y realizar diferentes proyectos. </t>
+  </si>
+  <si>
+    <t>Algunos docentes han desarrollado actividades de programación, principalmente desconectadas por la falta fe conectividad.</t>
+  </si>
+  <si>
+    <t>ciberacoso  y riesgos de internet; programación; elaboración de objetos de aprendizaje; evaluación y uso de software educativo</t>
+  </si>
+  <si>
+    <t>Observación de aula, Autoestudio, Investigación-Acción, Semilleros de investigación</t>
+  </si>
+  <si>
+    <t>El manejo de las tic en todas las áreas</t>
+  </si>
+  <si>
+    <t>Importancia de la tecnología en tiempos modernos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todas las preguntas son importantes y están ligadas al pensamiento computacional
+</t>
+  </si>
+  <si>
+    <t>Me falta conocimiento al respecto</t>
+  </si>
+  <si>
+    <t>programación, diseño de artefactos, uso de artefactos, impactos delos procesos tecnológicos.</t>
+  </si>
+  <si>
+    <t>No veo pertinente la pregunta sobre si es o no líder social ni el estado civil</t>
+  </si>
+  <si>
+    <t>Lo importante o imprescindible de algunos saberes es muy relativo, y lo vocacional en ésta institución se centra en lo pedagógico y se descuida otros horizontes.</t>
+  </si>
+  <si>
+    <t>Mentoría, Autoestudio, facilitar acceso a cursos y otros eventos académicos</t>
+  </si>
+  <si>
+    <t>Diseño y programación - Uso y aplicación de plataformas.</t>
+  </si>
+  <si>
+    <t>Paquete de office, programación, edición, navegación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stem, Internet de las cosas, minería de datos, programación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requerimos urgente dotación tecnológica pertinente para las Medias técnicas en Diseño y desarrollo de Software,  Multimedia,  Medios audiovisuales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es importante dotar con recursos para trabajar y apoyar las dificultades de aprendizaje </t>
   </si>
   <si>
     <t>COUNTA de Número de identificación</t>
@@ -3457,7 +3797,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" invalid="1" refreshOnLoad="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:BH743" sheet="Respuestas de formulario 1"/>
+    <worksheetSource ref="A1:BH804" sheet="Respuestas de formulario 1"/>
   </cacheSource>
   <cacheFields>
     <cacheField name="Marca temporal" numFmtId="164">
@@ -3977,6 +4317,67 @@
         <d v="2022-05-16T08:39:18Z"/>
         <d v="2022-05-16T08:53:25Z"/>
         <d v="2022-05-16T09:35:26Z"/>
+        <d v="2022-05-16T11:20:26Z"/>
+        <d v="2022-05-16T12:24:20Z"/>
+        <d v="2022-05-16T12:27:21Z"/>
+        <d v="2022-05-16T13:14:12Z"/>
+        <d v="2022-05-16T13:15:31Z"/>
+        <d v="2022-05-16T13:41:23Z"/>
+        <d v="2022-05-16T15:09:12Z"/>
+        <d v="2022-05-16T15:12:39Z"/>
+        <d v="2022-05-16T15:34:02Z"/>
+        <d v="2022-05-16T16:29:52Z"/>
+        <d v="2022-05-16T17:31:14Z"/>
+        <d v="2022-05-16T21:09:23Z"/>
+        <d v="2022-05-16T21:45:04Z"/>
+        <d v="2022-05-16T22:43:29Z"/>
+        <d v="2022-05-17T10:08:56Z"/>
+        <d v="2022-05-17T10:27:56Z"/>
+        <d v="2022-05-17T10:36:46Z"/>
+        <d v="2022-05-17T12:40:19Z"/>
+        <d v="2022-05-17T12:41:08Z"/>
+        <d v="2022-05-17T14:54:36Z"/>
+        <d v="2022-05-17T15:31:23Z"/>
+        <d v="2022-05-17T15:45:04Z"/>
+        <d v="2022-05-17T16:01:38Z"/>
+        <d v="2022-05-17T16:09:40Z"/>
+        <d v="2022-05-17T16:11:14Z"/>
+        <d v="2022-05-17T16:22:42Z"/>
+        <d v="2022-05-17T16:25:44Z"/>
+        <d v="2022-05-17T16:36:06Z"/>
+        <d v="2022-05-17T17:32:41Z"/>
+        <d v="2022-05-17T17:35:30Z"/>
+        <d v="2022-05-17T18:47:55Z"/>
+        <d v="2022-05-17T20:09:49Z"/>
+        <d v="2022-05-18T09:17:42Z"/>
+        <d v="2022-05-18T09:24:02Z"/>
+        <d v="2022-05-18T09:31:12Z"/>
+        <d v="2022-05-18T09:33:58Z"/>
+        <d v="2022-05-18T09:38:21Z"/>
+        <d v="2022-05-18T09:44:58Z"/>
+        <d v="2022-05-18T09:49:20Z"/>
+        <d v="2022-05-18T09:51:43Z"/>
+        <d v="2022-05-18T10:06:26Z"/>
+        <d v="2022-05-18T10:08:43Z"/>
+        <d v="2022-05-18T10:24:50Z"/>
+        <d v="2022-05-18T10:52:56Z"/>
+        <d v="2022-05-18T11:12:09Z"/>
+        <d v="2022-05-18T11:18:26Z"/>
+        <d v="2022-05-18T12:05:14Z"/>
+        <d v="2022-05-18T12:10:40Z"/>
+        <d v="2022-05-18T13:50:06Z"/>
+        <d v="2022-05-18T14:32:50Z"/>
+        <d v="2022-05-18T14:35:04Z"/>
+        <d v="2022-05-18T15:35:59Z"/>
+        <d v="2022-05-18T15:51:47Z"/>
+        <d v="2022-05-18T16:00:46Z"/>
+        <d v="2022-05-18T17:37:17Z"/>
+        <d v="2022-05-18T20:02:22Z"/>
+        <d v="2022-05-18T20:48:47Z"/>
+        <d v="2022-05-18T20:54:22Z"/>
+        <d v="2022-05-18T23:34:07Z"/>
+        <d v="2022-05-19T08:33:25Z"/>
+        <d v="2022-05-19T09:20:25Z"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4489,6 +4890,64 @@
         <n v="2.3496108E7"/>
         <n v="3.2736654E7"/>
         <n v="9.335841E7"/>
+        <n v="7.9651038E7"/>
+        <n v="3745709.0"/>
+        <n v="5.0891787E7"/>
+        <n v="2.241909E7"/>
+        <n v="3.2833318E7"/>
+        <n v="2.8548061E7"/>
+        <n v="1.2978824E7"/>
+        <n v="5.9827831E7"/>
+        <n v="3.1153554E7"/>
+        <n v="5.2749032E7"/>
+        <n v="4.0177688E7"/>
+        <n v="1.6729284E7"/>
+        <n v="3.2712276E7"/>
+        <n v="3.8857193E7"/>
+        <n v="6566526.0"/>
+        <n v="7.7030171E7"/>
+        <n v="7.8699689E7"/>
+        <n v="5.157404E7"/>
+        <n v="8740756.0"/>
+        <n v="6.0258815E7"/>
+        <n v="1.2907864E7"/>
+        <n v="6.0357874E7"/>
+        <n v="2.7502056E7"/>
+        <n v="1.3481919E7"/>
+        <n v="1.3350269E7"/>
+        <n v="5.5152164E7"/>
+        <n v="7709680.0"/>
+        <n v="1.9355796E7"/>
+        <n v="3.7722198E7"/>
+        <n v="1.3720449E7"/>
+        <n v="8.4080287E7"/>
+        <n v="3.7862931E7"/>
+        <n v="5.9665074E7"/>
+        <n v="2.2193887E7"/>
+        <n v="6.355314E7"/>
+        <n v="4.0922577E7"/>
+        <n v="2034499.0"/>
+        <n v="7161218.0"/>
+        <n v="1.098617153E9"/>
+        <n v="5.1913397E7"/>
+        <n v="1.124478159E9"/>
+        <n v="5.1851448E7"/>
+        <n v="8788827.0"/>
+        <n v="8.7941933E7"/>
+        <n v="9.8429146E7"/>
+        <n v="1.2964794E7"/>
+        <n v="4.3670828E7"/>
+        <n v="3.2843118E7"/>
+        <n v="2.7500394E7"/>
+        <n v="3.1165017E7"/>
+        <n v="3.14955E7"/>
+        <n v="9.3355515E7"/>
+        <n v="3.6155433E7"/>
+        <n v="6.6938362E7"/>
+        <n v="6763934.0"/>
+        <n v="1.3833672E7"/>
+        <n v="5.4256771E7"/>
+        <n v="4.3546249E7"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Edad" numFmtId="0">
@@ -4599,6 +5058,7 @@
         <s v="Orientadora Escolar "/>
         <s v="Docente de la media técnica"/>
         <s v="Apoyo pedagogico "/>
+        <s v="Asesor académico."/>
       </sharedItems>
     </cacheField>
     <cacheField name="¿En su institución hay estudiantes con algún tipo de discapacidad?" numFmtId="0">
@@ -4700,6 +5160,14 @@
         <n v="190.0"/>
         <n v="0.5"/>
         <s v="5t"/>
+        <s v="258 mas o menos"/>
+        <n v="41.0"/>
+        <s v="No esta establecido"/>
+        <s v="3 estudiantes "/>
+        <n v="66.0"/>
+        <n v="84.0"/>
+        <n v="123.0"/>
+        <n v="124.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Discapacidad intelectual (deficiencias en las capacidades mentales generales, como el razonamiento, la resolución de problemas, la planificación, el pensamiento abstracto, el juicio, el aprendizaje académico y el aprendizaje de la experiencia)" numFmtId="0">
@@ -4757,6 +5225,11 @@
         <n v="202.0"/>
         <n v="103.0"/>
         <s v="Ninguno"/>
+        <s v="02"/>
+        <s v="No esta establecido"/>
+        <s v="00"/>
+        <n v="25.0"/>
+        <n v="123.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Escriba el número aproximado de estudiantes de la institución con Discapacidad auditiva (deficiencias en la percepción y discriminación del sonido, su localización, tono, volumen y calidad; como consecuencia, dificultad en la recepción y producción de mensajes verbales y comunicación oral).">
@@ -4802,6 +5275,9 @@
         <n v="17.0"/>
         <n v="23.0"/>
         <n v="9.0"/>
+        <s v="02"/>
+        <s v="No esta establecido"/>
+        <s v="10+"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Escriba el número aproximado de estudiantes de la institución con Discapacidad visual  (deficiencias para percibir la luz, forma, tamaño o color de los objetos. Se incluye a quienes, a pesar de usar gafas o lentes de contacto, u operarse, tienen dificultades en uno o ambos ojos).">
@@ -4852,6 +5328,9 @@
         <s v="20 Baja vision"/>
         <n v="14.0"/>
         <n v="18.0"/>
+        <s v="04"/>
+        <s v="No esta establecido"/>
+        <n v="111.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Escriba el número aproximado de estudiantes de la institución con Discapacidad psicosocial (mental). (deficiencias en el relacionamiento con las demás personas y el entorno, alteraciones en el pensamiento y emociones)">
@@ -4925,6 +5404,10 @@
         <n v="29.0"/>
         <n v="48.0"/>
         <n v="553.0"/>
+        <s v="mas o menos. 8"/>
+        <s v="No esta establecido"/>
+        <n v="83.0"/>
+        <n v="134.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Escriba el número aproximado de estudiantes de la institución con Discapacidad múltiple. Cuando hay dos o más discapacidades asociadas (físico, sensorial, intelectual, psicosocial).">
@@ -4983,6 +5466,10 @@
         <s v="N.A."/>
         <s v="Ni "/>
         <s v="1 sin diagnostico"/>
+        <s v="06"/>
+        <s v="No esta establecido"/>
+        <n v="43.0"/>
+        <n v="124.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Escriba el número aproximado de estudiantes de la institución con Trastornos Específicos del Aprendizaje (por ejemplo, Dislexia, Dispraxia, Discalculia)">
@@ -5063,6 +5550,12 @@
         <s v="Ninguno"/>
         <s v="3 sin diagnóstico "/>
         <n v="21.0"/>
+        <s v="mas o menos 45"/>
+        <s v="02"/>
+        <s v="No esta establecido"/>
+        <n v="42.0"/>
+        <n v="113.0"/>
+        <s v="Aún no están diagnosticados."/>
       </sharedItems>
     </cacheField>
     <cacheField name="¿Su colegio está en un contexto?" numFmtId="0">
@@ -5655,6 +6148,63 @@
         <s v="Desde muy temprana edad slgo ensamble, algo programación "/>
         <s v="Software, pensamiento computacional, lenguaje en programación."/>
         <s v="Todo lo concerniente a la temática de 4 revolución."/>
+        <s v="MANEJO DE DE NUEVAS TECNOLOGÍAS"/>
+        <s v="Uso de redes sociales"/>
+        <s v="Nociones de programación "/>
+        <s v="Normatividad vigente en uso de redes"/>
+        <s v="Programación y pensamiento computacional"/>
+        <s v="Programacion para la solucion de problemas"/>
+        <s v="Desarrollo del pensamiento logico en la resolucion de problems"/>
+        <s v="Pensamiento computacional, programación por bloques, actividades sin conexión y algoritmos."/>
+        <s v="Actuallización de usos de las tics en todos los niveles"/>
+        <s v="Programación - manejo de herramientas web"/>
+        <s v="Seguridad digital "/>
+        <s v="Manejo de Excel, word, Powerpoint, paint, internet, publisher, redes sociales, correos electrónicos, creación de videos."/>
+        <s v="Desallo computacional y tecnologico"/>
+        <s v="Progracion. Proyectos de electrónica y Robótica "/>
+        <s v="Pensamiento tecnológico "/>
+        <s v="Capacitación para el trabajo, E learning"/>
+        <s v="Pensamiento computacionql"/>
+        <s v="Ayudas audiovisuales "/>
+        <s v="Manejo básico del computador y el paquete ofimático."/>
+        <s v="Habilidades tecnologicas. Pensamiento critico. Desarrollo de problemas"/>
+        <s v="creacion de software"/>
+        <s v="Pensamiento computacional y programación"/>
+        <s v="Capacidad para discernir las falsas noticias de las reales. También preparar  a los estudiantes para que no sean víctimas de ningún tipo de manipulación (psicosocial, sexual, informática, etc)"/>
+        <s v="Relacionar con las areas basicas y transversales"/>
+        <s v="Relacionar con la vida cotidiana "/>
+        <s v="Manejar las TIC en todo"/>
+        <s v=" Facilita los procesos educativos. Simplifica las tareas domésticas. Facilita la comunicación . Nuevos empleos. Acceso rápido a la información."/>
+        <s v="Más que conceptos se necesita práctica "/>
+        <s v="Lógica de programación."/>
+        <s v="Se debe incluir la preparación de los estudiantes para la vida que la informática prepararlos"/>
+        <s v="Capacitación y practicas pedagógicas docentes."/>
+        <s v="Pensamiento computacional, robótica, biotecnología, redes, entre otros "/>
+        <s v="Los insumos y material de consulta para todas las áreas, incluido el internet."/>
+        <s v="El compromiso del todo el personal directivo es importante"/>
+        <s v="Diseño de programación y mantenimiento de equipos"/>
+        <s v="Que nos pongan internet."/>
+        <s v="Capacitación constante de los docentes del área."/>
+        <s v="Importante que nos den internet, sin eso estamos graves"/>
+        <s v="Temas lúdicos, recreativos y conceptuales "/>
+        <s v="Innovación y didactica "/>
+        <s v="programación y diseño"/>
+        <s v="Robótica"/>
+        <s v="Programacion. Mantenimiento de equips. Redes"/>
+        <s v="Programación, manejo adecuado de redes sociales"/>
+        <s v="Programación y habilidades tic"/>
+        <s v="Manejo de programas, aplicaciones,  metaverso "/>
+        <s v="Manejo de datos, sistemas de información, redes de aprendizaje"/>
+        <s v="Ofimática, robotica y programacion. "/>
+        <s v="La programación y todo lo relacionado a la Robótica "/>
+        <s v="Todas las habilidades del pensamientos computacional"/>
+        <s v="ciberacoso  y riesgos de internet; programación; elaboración de objetos de aprendizaje; evaluación y uso de software educativo"/>
+        <s v="El manejo de las tic en todas las áreas"/>
+        <s v="Importancia de la tecnología en tiempos modernos."/>
+        <s v="programación, diseño de artefactos, uso de artefactos, impactos delos procesos tecnológicos."/>
+        <s v="Diseño y programación - Uso y aplicación de plataformas."/>
+        <s v="Paquete de office, programación, edición, navegación."/>
+        <s v="Stem, Internet de las cosas, minería de datos, programación "/>
       </sharedItems>
     </cacheField>
     <cacheField name="Agregue cualquier comentario o clarificación sobre las preguntas anteriores.">
@@ -5888,6 +6438,29 @@
         <s v="es difícil predecir la cantidad de estudiantes con alguna discapacidad, me parece que estas preguntas no deben ir incluidas, sino se tiene un resultado más concreto."/>
         <s v="Enfocadas al interés de conseguir a qué sea un proyecto integral"/>
         <s v="Necesarias para acoger el programa "/>
+        <s v="Las estudiantes no saben utilizar las redes sociales"/>
+        <s v="Seguimiento y terminación de los capacitaciones"/>
+        <s v="Crear cultura digital "/>
+        <s v="Las preguntas de estadística me tomaron de sorpresa."/>
+        <s v="Realizar seguimiento continuó al programa "/>
+        <s v="Mejorar los equipos tecnológicos de la institución "/>
+        <s v="Agradezco la presencia de este programa en la institución, por su gran relevancia"/>
+        <s v="Es decir que la tecnologia pueda estar integrada en todas las areas"/>
+        <s v="Con el pensamiento computacional se desarrollan habilidades relacionadas con la resolución de problemas "/>
+        <s v="Responder número aproximado de estudiantes en todos los aspectos es poco acertivo, puesto que en mi caso el coordinador de la mañana tiene sus propios procesos y en la tarde también. Somos dos coordinadores en la misma sede. Responder por el es poco ético"/>
+        <s v="La pregunta de discapacidades es muy fuerte deberían replantear"/>
+        <s v="Todo lo que represente innovación "/>
+        <s v="Xxx"/>
+        <s v="que exista interdisciplinariedad entre los programas y las diferentes áreas"/>
+        <s v="La IE tiene un enfoque en ciencias Del mar por estar en zona pacifica y tener el mar pacifico Como su principal fuente de economia de la region"/>
+        <s v="La sede abarca poblacion mayirmente indigena awa y victima de conflicto"/>
+        <s v="Es importante desarrollar competencias del ser frente a las necesidades propias de la apropiación  tecnológica "/>
+        <s v="Estan claramente expresados. "/>
+        <s v="La institución ya ha venido trabajando en proyectos de robótica "/>
+        <s v="Es muy importante contar con conocimientos sobre programación para orientar a los y las estudiantes y realizar diferentes proyectos. "/>
+        <s v="Todas las preguntas son importantes y están ligadas al pensamiento computacional&#10;"/>
+        <s v="No veo pertinente la pregunta sobre si es o no líder social ni el estado civil"/>
+        <s v="Requerimos urgente dotación tecnológica pertinente para las Medias técnicas en Diseño y desarrollo de Software,  Multimedia,  Medios audiovisuales "/>
       </sharedItems>
     </cacheField>
     <cacheField name="Por favor evalúe los siguientes enunciados de acuerdo con su experiencia:    [Los maestros de esta Institución educativa incorporan el pensamiento computacional en sus clases]" numFmtId="0">
@@ -6179,6 +6752,24 @@
         <s v="Solo pocos maestros llevan la iniciativa de trabajo con pensamiento computacional"/>
         <s v="Excelente proyección desde la Escuela para la vida futura de nuestros estudiantes por parte de ustedes"/>
         <s v="Necesaria para la aplicación del programa "/>
+        <s v="Sólo los docentes de tecnología e informática trabajan estas temáticas."/>
+        <s v="Todo esta incluído"/>
+        <s v="Solo hubo dos opciones en las anteriores preguntas, lo cual no es computacional, no es real."/>
+        <s v="Me parece de suma importancia cambiar la programación de  tec. E informática en la institución "/>
+        <s v="Institucionalmente no se maneja pensamiento computacional "/>
+        <s v="El penaamiento computacional es un area naciente que debemos implementar de la mejor manera"/>
+        <s v="Como Rector no incido mucho en aspectos vocacionales, pero los docentes de informática sí realizan labores de motivación para que puedan continuar sus estudios en áreas relacionadas con el pensamiento computacional. Aunque coloqué que los docentes no inco"/>
+        <s v="Es importante la informacion acerca de los programas para compartir a estudiantes"/>
+        <s v="Aunque es un concepto relativamente nuevo ya que todas las personas desarrollan habilidades propias del ámbito computacional,  permite el pensamiento crítico ya que se puede orientar hacia la inclusión de cursos e incluirlo en el currículo y planes de est"/>
+        <s v="En la institución no existe sala de informática ni se ha dado uso a la sala steam"/>
+        <s v="Tener en cuenta todos por proyectos que envía SED y no saturar de trabajo "/>
+        <s v="El pensamiento conputciinal es nuevo y estamis en proceso de implementar las habilidades "/>
+        <s v="Es una gran necesidad implementar estas herramientas en los educandos."/>
+        <s v="Escasos equipos tecnológicos, conectividad y acceso hacen dificil el proceso de replica de pensamiento computacional. "/>
+        <s v="Algunos docentes han desarrollado actividades de programación, principalmente desconectadas por la falta fe conectividad."/>
+        <s v="Me falta conocimiento al respecto"/>
+        <s v="Lo importante o imprescindible de algunos saberes es muy relativo, y lo vocacional en ésta institución se centra en lo pedagógico y se descuida otros horizontes."/>
+        <s v="Es importante dotar con recursos para trabajar y apoyar las dificultades de aprendizaje "/>
       </sharedItems>
     </cacheField>
     <cacheField name="¿De las siguientes actividades cuáles se promueven en esta institución educativa para apoyar la formación docente enfocadas en pensamiento computacional?" numFmtId="0">
@@ -6232,6 +6823,10 @@
         <s v="ABP,  aprendizaje basado en proyectos"/>
         <s v="Mentoría, Autoestudio, Investigación-Acción, El trabajo en equipo en el diseño didáctico de planes  de trabajo, planes de área, material didáctico, Resignificación del PEI"/>
         <s v="Autoestudio, Investigación-Acción, Ninguna de las anteriores"/>
+        <s v="Capacitaciones sobre pensamiento computacional."/>
+        <s v="El MEN ha realizado muchas capacitaciones en torno al tema y los docentes han participado activamente. Igualmente utilizamos plataformas virtuales a nivel de procesos académicos."/>
+        <s v="Observación de aula, Autoestudio, Investigación-Acción, Semilleros de investigación"/>
+        <s v="Mentoría, Autoestudio, facilitar acceso a cursos y otros eventos académicos"/>
       </sharedItems>
     </cacheField>
     <cacheField name="¿La rotación de los docentes de tecnología e informática influye sobre la calidad y el aprendizaje del área de los estudiantes en los diferentes grados?" numFmtId="0">
@@ -6465,6 +7060,23 @@
         <n v="209.0"/>
         <n v="81.0"/>
         <n v="239.0"/>
+        <n v="105.0"/>
+        <n v="196.0"/>
+        <n v="60.0"/>
+        <n v="193.0"/>
+        <n v="159.0"/>
+        <n v="201.0"/>
+        <n v="79.0"/>
+        <n v="135.0"/>
+        <n v="102.0"/>
+        <n v="219.0"/>
+        <n v="194.0"/>
+        <n v="243.0"/>
+        <n v="249.0"/>
+        <n v="29.0"/>
+        <n v="47.0"/>
+        <n v="245.0"/>
+        <n v="242.0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tipo de documento">
@@ -6483,7 +7095,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica 1" cacheId="0" dataCaption="" compact="0" compactData="0">
-  <location ref="A1:B221" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <location ref="A1:B238" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields>
     <pivotField name="Marca temporal" compact="0" numFmtId="164" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items>
@@ -7003,6 +7615,67 @@
         <item x="513"/>
         <item x="514"/>
         <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
+        <item x="558"/>
+        <item x="559"/>
+        <item x="560"/>
+        <item x="561"/>
+        <item x="562"/>
+        <item x="563"/>
+        <item x="564"/>
+        <item x="565"/>
+        <item x="566"/>
+        <item x="567"/>
+        <item x="568"/>
+        <item x="569"/>
+        <item x="570"/>
+        <item x="571"/>
+        <item x="572"/>
+        <item x="573"/>
+        <item x="574"/>
+        <item x="575"/>
+        <item x="576"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7516,6 +8189,64 @@
         <item x="497"/>
         <item x="498"/>
         <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item x="546"/>
+        <item x="547"/>
+        <item x="548"/>
+        <item x="549"/>
+        <item x="550"/>
+        <item x="551"/>
+        <item x="552"/>
+        <item x="553"/>
+        <item x="554"/>
+        <item x="555"/>
+        <item x="556"/>
+        <item x="557"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7633,6 +8364,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7736,6 +8468,14 @@
         <item x="87"/>
         <item x="88"/>
         <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7795,6 +8535,11 @@
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7841,6 +8586,9 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7892,6 +8640,9 @@
         <item x="43"/>
         <item x="44"/>
         <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7966,6 +8717,10 @@
         <item x="66"/>
         <item x="67"/>
         <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8025,6 +8780,10 @@
         <item x="51"/>
         <item x="52"/>
         <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8106,6 +8865,12 @@
         <item x="73"/>
         <item x="74"/>
         <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8721,6 +9486,63 @@
         <item x="466"/>
         <item x="467"/>
         <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8955,6 +9777,29 @@
         <item x="226"/>
         <item x="227"/>
         <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9259,6 +10104,24 @@
         <item x="188"/>
         <item x="189"/>
         <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9313,6 +10176,10 @@
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9356,6 +10223,7 @@
         <item x="196"/>
         <item x="81"/>
         <item x="184"/>
+        <item x="232"/>
         <item x="185"/>
         <item x="210"/>
         <item x="4"/>
@@ -9370,6 +10238,7 @@
         <item x="206"/>
         <item x="138"/>
         <item x="44"/>
+        <item x="233"/>
         <item x="101"/>
         <item x="99"/>
         <item x="149"/>
@@ -9382,6 +10251,7 @@
         <item x="142"/>
         <item x="164"/>
         <item x="166"/>
+        <item x="221"/>
         <item x="140"/>
         <item x="23"/>
         <item x="61"/>
@@ -9399,6 +10269,7 @@
         <item x="126"/>
         <item x="16"/>
         <item x="144"/>
+        <item x="225"/>
         <item x="90"/>
         <item x="217"/>
         <item x="119"/>
@@ -9421,8 +10292,10 @@
         <item x="68"/>
         <item x="188"/>
         <item x="187"/>
+        <item x="227"/>
         <item x="69"/>
         <item x="152"/>
+        <item x="219"/>
         <item x="85"/>
         <item x="37"/>
         <item x="182"/>
@@ -9448,6 +10321,7 @@
         <item x="151"/>
         <item x="89"/>
         <item x="110"/>
+        <item x="226"/>
         <item x="172"/>
         <item x="190"/>
         <item x="213"/>
@@ -9468,6 +10342,7 @@
         <item x="204"/>
         <item x="98"/>
         <item x="209"/>
+        <item x="223"/>
         <item x="170"/>
         <item x="161"/>
         <item x="82"/>
@@ -9497,10 +10372,14 @@
         <item x="107"/>
         <item x="94"/>
         <item x="48"/>
+        <item x="222"/>
+        <item x="229"/>
+        <item x="220"/>
         <item x="52"/>
         <item x="7"/>
         <item x="53"/>
         <item x="51"/>
+        <item x="224"/>
         <item x="95"/>
         <item x="146"/>
         <item x="176"/>
@@ -9517,6 +10396,7 @@
         <item x="131"/>
         <item x="60"/>
         <item x="40"/>
+        <item x="228"/>
         <item x="167"/>
         <item x="168"/>
         <item x="74"/>
@@ -9539,10 +10419,14 @@
         <item x="218"/>
         <item x="200"/>
         <item x="116"/>
+        <item x="235"/>
+        <item x="230"/>
         <item x="96"/>
+        <item x="234"/>
         <item x="181"/>
         <item x="14"/>
         <item x="97"/>
+        <item x="231"/>
         <item x="130"/>
         <item x="150"/>
         <item x="50"/>
@@ -69123,6 +70007,7115 @@
         <v>76.0</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="8">
+        <v>44697.472528125</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C517" s="2">
+        <v>7.9651038E7</v>
+      </c>
+      <c r="D517" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G517" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H517" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I517" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J517" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L517" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="N517" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="O517" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P517" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q517" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="R517" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S517" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO517" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP517" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AR517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB517" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC517" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE517" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF517" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG517" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="BH517" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI517" s="2">
+        <v>1915.0</v>
+      </c>
+      <c r="BJ517" s="2">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="8">
+        <v>44697.51690604167</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C518" s="2">
+        <v>3745709.0</v>
+      </c>
+      <c r="D518" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G518" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I518" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J518" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO518" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP518" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AQ518" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AR518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ518" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC518" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE518" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF518" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG518" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="BH518" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI518" s="2">
+        <v>3075.0</v>
+      </c>
+      <c r="BJ518" s="2">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="8">
+        <v>44697.51899685185</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C519" s="2">
+        <v>5.0891787E7</v>
+      </c>
+      <c r="D519" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G519" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H519" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I519" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J519" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L519" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="N519" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O519" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P519" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q519" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R519" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S519" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO519" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP519" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AQ519" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU519" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA519" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB519" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC519" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD519" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BE519" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF519" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG519" s="2">
+        <v>196.0</v>
+      </c>
+      <c r="BH519" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI519" s="2">
+        <v>2013.0</v>
+      </c>
+      <c r="BJ519" s="2">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="8">
+        <v>44697.551537997686</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C520" s="2">
+        <v>2.241909E7</v>
+      </c>
+      <c r="D520" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G520" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H520" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I520" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J520" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L520" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N520" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O520" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P520" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="Q520" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R520" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="S520" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AO520" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP520" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AR520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU520" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC520" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE520" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF520" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG520" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="BH520" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI520" s="2">
+        <v>758.0</v>
+      </c>
+      <c r="BJ520" s="2">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="8">
+        <v>44697.55244212963</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C521" s="2">
+        <v>3.2833318E7</v>
+      </c>
+      <c r="D521" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G521" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I521" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J521" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L521" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="N521" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O521" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P521" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="Q521" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="R521" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S521" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO521" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP521" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AR521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB521" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC521" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE521" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF521" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG521" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="BH521" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI521" s="2">
+        <v>3182.0</v>
+      </c>
+      <c r="BJ521" s="2">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="8">
+        <v>44697.57040519676</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C522" s="2">
+        <v>2.8548061E7</v>
+      </c>
+      <c r="D522" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G522" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I522" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J522" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L522" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="N522" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O522" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P522" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q522" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="R522" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="S522" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO522" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP522" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AR522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ522" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC522" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE522" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF522" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG522" s="2">
+        <v>209.0</v>
+      </c>
+      <c r="BH522" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI522" s="2">
+        <v>1063.0</v>
+      </c>
+      <c r="BJ522" s="2">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="8">
+        <v>44697.63139645834</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C523" s="2">
+        <v>1.2978824E7</v>
+      </c>
+      <c r="D523" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G523" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I523" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J523" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L523" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="N523" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O523" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P523" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q523" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="R523" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S523" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="AO523" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP523" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AR523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA523" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB523" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC523" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE523" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF523" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG523" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="BH523" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI523" s="2">
+        <v>1326.0</v>
+      </c>
+      <c r="BJ523" s="2">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="8">
+        <v>44697.633796168986</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C524" s="2">
+        <v>5.9827831E7</v>
+      </c>
+      <c r="D524" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G524" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H524" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I524" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J524" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L524" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="N524" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O524" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P524" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q524" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="R524" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S524" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="AO524" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP524" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AR524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT524" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA524" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB524" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC524" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE524" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF524" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG524" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="BH524" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI524" s="2">
+        <v>1329.0</v>
+      </c>
+      <c r="BJ524" s="2">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="8">
+        <v>44697.6486444676</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C525" s="2">
+        <v>3.1153554E7</v>
+      </c>
+      <c r="D525" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G525" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H525" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I525" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J525" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L525" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N525" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O525" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="P525" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q525" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="R525" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S525" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO525" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP525" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AQ525" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR525" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC525" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD525" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="BE525" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF525" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG525" s="2">
+        <v>184.0</v>
+      </c>
+      <c r="BH525" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI525" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="BJ525" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="8">
+        <v>44697.687407997684</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C526" s="2">
+        <v>5.1565161E7</v>
+      </c>
+      <c r="D526" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G526" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I526" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J526" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="N526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="R526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="S526" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AO526" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP526" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AQ526" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AR526" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS526" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT526" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC526" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD526" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="BE526" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF526" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG526" s="2">
+        <v>121.0</v>
+      </c>
+      <c r="BH526" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI526" s="2">
+        <v>667.0</v>
+      </c>
+      <c r="BJ526" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="8">
+        <v>44697.73002625</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C527" s="2">
+        <v>5.2749032E7</v>
+      </c>
+      <c r="D527" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G527" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I527" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J527" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L527" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N527" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O527" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P527" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q527" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="R527" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S527" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="AO527" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP527" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AR527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ527" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC527" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE527" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF527" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG527" s="2">
+        <v>193.0</v>
+      </c>
+      <c r="BH527" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI527" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="BJ527" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="8">
+        <v>44697.88151732639</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C528" s="2">
+        <v>4.0177688E7</v>
+      </c>
+      <c r="D528" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G528" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H528" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I528" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J528" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L528" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="N528" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O528" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P528" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q528" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R528" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S528" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO528" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP528" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AQ528" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AR528" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC528" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE528" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF528" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG528" s="2">
+        <v>220.0</v>
+      </c>
+      <c r="BH528" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI528" s="2">
+        <v>1200.0</v>
+      </c>
+      <c r="BJ528" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="8">
+        <v>44697.90630434028</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C529" s="2">
+        <v>1.6729284E7</v>
+      </c>
+      <c r="D529" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G529" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H529" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I529" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J529" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L529" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N529" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O529" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P529" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="Q529" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="R529" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S529" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AO529" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP529" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AQ529" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AR529" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC529" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD529" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="BE529" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="BF529" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG529" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="BH529" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI529" s="2">
+        <v>1600.0</v>
+      </c>
+      <c r="BJ529" s="2">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="8">
+        <v>44697.946864537036</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C530" s="2">
+        <v>3.2712276E7</v>
+      </c>
+      <c r="D530" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G530" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I530" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J530" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L530" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N530" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O530" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P530" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q530" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R530" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S530" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO530" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP530" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AR530" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU530" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC530" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE530" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF530" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG530" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="BH530" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI530" s="2">
+        <v>2100.0</v>
+      </c>
+      <c r="BJ530" s="2">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="8">
+        <v>44698.42288121527</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C531" s="2">
+        <v>3.8857193E7</v>
+      </c>
+      <c r="D531" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G531" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I531" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J531" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L531" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N531" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O531" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P531" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q531" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R531" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S531" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AO531" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP531" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AR531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ531" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC531" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD531" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="BE531" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF531" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG531" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="BH531" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI531" s="2">
+        <v>1574.0</v>
+      </c>
+      <c r="BJ531" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="8">
+        <v>44698.43606893519</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C532" s="2">
+        <v>6566526.0</v>
+      </c>
+      <c r="D532" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G532" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H532" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I532" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J532" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L532" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="N532" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O532" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P532" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q532" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R532" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S532" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO532" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP532" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AQ532" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AR532" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS532" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT532" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC532" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE532" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF532" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG532" s="2">
+        <v>220.0</v>
+      </c>
+      <c r="BH532" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI532" s="2">
+        <v>1290.0</v>
+      </c>
+      <c r="BJ532" s="2">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="8">
+        <v>44698.442199108795</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C533" s="2">
+        <v>7.7030171E7</v>
+      </c>
+      <c r="D533" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G533" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H533" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I533" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J533" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L533" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N533" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O533" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P533" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q533" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R533" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S533" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AO533" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP533" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AQ533" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU533" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC533" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD533" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE533" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF533" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG533" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="BH533" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI533" s="2">
+        <v>1574.0</v>
+      </c>
+      <c r="BJ533" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="8">
+        <v>44698.52800362269</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C534" s="2">
+        <v>7.8699689E7</v>
+      </c>
+      <c r="D534" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G534" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H534" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I534" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J534" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L534" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="N534" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O534" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P534" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="Q534" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="R534" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="S534" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="AO534" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP534" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AR534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ534" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA534" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB534" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC534" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE534" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF534" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG534" s="2">
+        <v>87.0</v>
+      </c>
+      <c r="BH534" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI534" s="2">
+        <v>1324.0</v>
+      </c>
+      <c r="BJ534" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="8">
+        <v>44698.52856506944</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C535" s="2">
+        <v>5.157404E7</v>
+      </c>
+      <c r="D535" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G535" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I535" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J535" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L535" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N535" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O535" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P535" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q535" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R535" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S535" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO535" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP535" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AQ535" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AR535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ535" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC535" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD535" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="BE535" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF535" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG535" s="2">
+        <v>208.0</v>
+      </c>
+      <c r="BH535" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI535" s="2">
+        <v>2970.0</v>
+      </c>
+      <c r="BJ535" s="2">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="8">
+        <v>44698.62125215278</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C536" s="2">
+        <v>8740756.0</v>
+      </c>
+      <c r="D536" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G536" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H536" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I536" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J536" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L536" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="N536" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O536" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P536" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q536" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R536" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S536" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AO536" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP536" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AR536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC536" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE536" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="BF536" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG536" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="BH536" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI536" s="2">
+        <v>1574.0</v>
+      </c>
+      <c r="BJ536" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="8">
+        <v>44698.646803888885</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C537" s="2">
+        <v>1.2905284E7</v>
+      </c>
+      <c r="D537" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G537" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H537" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I537" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J537" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L537" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N537" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O537" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P537" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q537" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R537" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S537" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO537" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP537" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AQ537" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR537" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU537" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB537" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC537" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD537" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="BE537" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF537" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG537" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="BH537" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI537" s="2">
+        <v>680.0</v>
+      </c>
+      <c r="BJ537" s="2">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="8">
+        <v>44698.65630212963</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538" s="2">
+        <v>1.2980288E7</v>
+      </c>
+      <c r="D538" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G538" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I538" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J538" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L538" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N538" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O538" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P538" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q538" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R538" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S538" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="AO538" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP538" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AR538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ538" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC538" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE538" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF538" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG538" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="BH538" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI538" s="2">
+        <v>1100.0</v>
+      </c>
+      <c r="BJ538" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="8">
+        <v>44698.6678096875</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C539" s="2">
+        <v>6.0258815E7</v>
+      </c>
+      <c r="D539" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G539" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I539" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J539" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L539" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="N539" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O539" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P539" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q539" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="R539" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S539" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AO539" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP539" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AR539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA539" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC539" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE539" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF539" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG539" s="2">
+        <v>181.0</v>
+      </c>
+      <c r="BH539" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI539" s="2">
+        <v>970.0</v>
+      </c>
+      <c r="BJ539" s="2">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="8">
+        <v>44698.67338680556</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C540" s="2">
+        <v>1.2907864E7</v>
+      </c>
+      <c r="D540" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G540" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H540" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I540" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J540" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L540" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="N540" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O540" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P540" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q540" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R540" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S540" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO540" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP540" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AQ540" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AR540" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA540" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB540" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC540" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD540" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="BE540" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="BF540" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG540" s="2">
+        <v>130.0</v>
+      </c>
+      <c r="BH540" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI540" s="2">
+        <v>936.0</v>
+      </c>
+      <c r="BJ540" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="8">
+        <v>44698.674468425925</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C541" s="2">
+        <v>6.0357874E7</v>
+      </c>
+      <c r="D541" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G541" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H541" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J541" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L541" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N541" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O541" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="P541" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="Q541" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="R541" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="S541" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="AO541" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP541" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR541" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC541" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE541" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF541" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG541" s="2">
+        <v>228.0</v>
+      </c>
+      <c r="BH541" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI541" s="2">
+        <v>473.0</v>
+      </c>
+      <c r="BJ541" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="8">
+        <v>44698.682436076386</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C542" s="2">
+        <v>2.7502056E7</v>
+      </c>
+      <c r="D542" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G542" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I542" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J542" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L542" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S542" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO542" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP542" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AQ542" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AR542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB542" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC542" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD542" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BE542" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF542" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG542" s="2">
+        <v>201.0</v>
+      </c>
+      <c r="BH542" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI542" s="2">
+        <v>682.0</v>
+      </c>
+      <c r="BJ542" s="2">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="8">
+        <v>44698.6845378125</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C543" s="2">
+        <v>1.3481919E7</v>
+      </c>
+      <c r="D543" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G543" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H543" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I543" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J543" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L543" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="N543" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O543" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P543" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q543" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R543" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S543" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AO543" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP543" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AR543" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS543" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC543" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE543" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF543" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG543" s="2">
+        <v>229.0</v>
+      </c>
+      <c r="BH543" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI543" s="2">
+        <v>1545.0</v>
+      </c>
+      <c r="BJ543" s="2">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="8">
+        <v>44698.69174112269</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C544" s="2">
+        <v>1.3350269E7</v>
+      </c>
+      <c r="D544" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G544" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H544" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I544" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J544" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L544" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="N544" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O544" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P544" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q544" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="R544" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S544" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AO544" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP544" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC544" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE544" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF544" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG544" s="2">
+        <v>226.0</v>
+      </c>
+      <c r="BH544" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI544" s="2">
+        <v>2115.0</v>
+      </c>
+      <c r="BJ544" s="2">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="8">
+        <v>44698.731035289355</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C545" s="2">
+        <v>5.5152164E7</v>
+      </c>
+      <c r="D545" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G545" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I545" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J545" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L545" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N545" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O545" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P545" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q545" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R545" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S545" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO545" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP545" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AR545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ545" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC545" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE545" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF545" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG545" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="BH545" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI545" s="2">
+        <v>1631.0</v>
+      </c>
+      <c r="BJ545" s="2">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="8">
+        <v>44698.7329889699</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C546" s="2">
+        <v>7709680.0</v>
+      </c>
+      <c r="D546" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G546" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H546" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I546" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J546" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L546" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N546" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O546" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P546" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q546" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R546" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S546" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO546" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP546" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AR546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS546" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA546" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB546" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC546" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE546" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF546" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG546" s="2">
+        <v>79.0</v>
+      </c>
+      <c r="BH546" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI546" s="2">
+        <v>1631.0</v>
+      </c>
+      <c r="BJ546" s="2">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="8">
+        <v>44698.783276898146</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C547" s="2">
+        <v>1.9355796E7</v>
+      </c>
+      <c r="D547" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G547" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H547" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I547" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J547" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L547" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="N547" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="O547" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P547" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="Q547" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="R547" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="S547" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="AO547" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP547" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AQ547" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AR547" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB547" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC547" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD547" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BE547" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF547" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG547" s="2">
+        <v>211.0</v>
+      </c>
+      <c r="BH547" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI547" s="2">
+        <v>3200.0</v>
+      </c>
+      <c r="BJ547" s="2">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="8">
+        <v>44698.84015299768</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C548" s="2">
+        <v>3.7722198E7</v>
+      </c>
+      <c r="D548" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H548" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I548" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J548" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L548" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="N548" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O548" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P548" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q548" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R548" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S548" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="AO548" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP548" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AQ548" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AR548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS548" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ548" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA548" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB548" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC548" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD548" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BE548" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF548" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG548" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="BH548" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI548" s="2">
+        <v>512.0</v>
+      </c>
+      <c r="BJ548" s="2">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="8">
+        <v>44699.38729766203</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C549" s="2">
+        <v>1.3720449E7</v>
+      </c>
+      <c r="D549" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H549" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I549" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J549" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L549" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="N549" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O549" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P549" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q549" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R549" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S549" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO549" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP549" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AR549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC549" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE549" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF549" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG549" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="BH549" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI549" s="2">
+        <v>2075.0</v>
+      </c>
+      <c r="BJ549" s="2">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="8">
+        <v>44699.39169924769</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550" s="2">
+        <v>8.4080287E7</v>
+      </c>
+      <c r="D550" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H550" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I550" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J550" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L550" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="N550" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O550" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P550" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q550" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R550" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S550" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO550" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP550" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AQ550" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AR550" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU550" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB550" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC550" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE550" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF550" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG550" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="BH550" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI550" s="2">
+        <v>638.0</v>
+      </c>
+      <c r="BJ550" s="2">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="8">
+        <v>44699.39667652777</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C551" s="2">
+        <v>3.7862931E7</v>
+      </c>
+      <c r="D551" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H551" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I551" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J551" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L551" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N551" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O551" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="P551" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q551" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R551" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S551" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO551" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP551" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AR551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC551" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE551" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF551" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG551" s="2">
+        <v>101.0</v>
+      </c>
+      <c r="BH551" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI551" s="2">
+        <v>180.0</v>
+      </c>
+      <c r="BJ551" s="2">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="8">
+        <v>44699.39859582176</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C552" s="2">
+        <v>5.9665074E7</v>
+      </c>
+      <c r="D552" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I552" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J552" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L552" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="N552" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O552" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P552" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="Q552" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="R552" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="S552" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="AO552" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP552" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AR552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB552" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC552" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE552" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF552" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG552" s="2">
+        <v>197.0</v>
+      </c>
+      <c r="BH552" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI552" s="2">
+        <v>750.0</v>
+      </c>
+      <c r="BJ552" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="8">
+        <v>44699.4016434838</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C553" s="2">
+        <v>2.2193887E7</v>
+      </c>
+      <c r="D553" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I553" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J553" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L553" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N553" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="O553" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="P553" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q553" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R553" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S553" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO553" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP553" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AR553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB553" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC553" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE553" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF553" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG553" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="BH553" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI553" s="2">
+        <v>5200.0</v>
+      </c>
+      <c r="BJ553" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="8">
+        <v>44699.40623650463</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C554" s="2">
+        <v>6.355314E7</v>
+      </c>
+      <c r="D554" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I554" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J554" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L554" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N554" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O554" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P554" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q554" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R554" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S554" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO554" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP554" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="AR554" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS554" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT554" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE554" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF554" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG554" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="BH554" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI554" s="2">
+        <v>5250.0</v>
+      </c>
+      <c r="BJ554" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="8">
+        <v>44699.40926321759</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C555" s="2">
+        <v>4.0922577E7</v>
+      </c>
+      <c r="D555" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I555" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J555" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L555" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="N555" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O555" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P555" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q555" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R555" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S555" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO555" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP555" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AQ555" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR555" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC555" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE555" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF555" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG555" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="BH555" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI555" s="2">
+        <v>638.0</v>
+      </c>
+      <c r="BJ555" s="2">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="8">
+        <v>44699.410923171294</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C556" s="2">
+        <v>2034499.0</v>
+      </c>
+      <c r="D556" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G556" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I556" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J556" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L556" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N556" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="O556" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="P556" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q556" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R556" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S556" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO556" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP556" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AR556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ556" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC556" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE556" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF556" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG556" s="2">
+        <v>103.0</v>
+      </c>
+      <c r="BH556" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI556" s="2">
+        <v>4005.0</v>
+      </c>
+      <c r="BJ556" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="8">
+        <v>44699.421141666666</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C557" s="2">
+        <v>7161218.0</v>
+      </c>
+      <c r="D557" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I557" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J557" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K557" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S557" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO557" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP557" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AR557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC557" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE557" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF557" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG557" s="2">
+        <v>105.0</v>
+      </c>
+      <c r="BH557" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI557" s="2">
+        <v>2020.0</v>
+      </c>
+      <c r="BJ557" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="8">
+        <v>44699.42272912037</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C558" s="2">
+        <v>1.098617153E9</v>
+      </c>
+      <c r="D558" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I558" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J558" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K558" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S558" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO558" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP558" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AR558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC558" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE558" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF558" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG558" s="2">
+        <v>104.0</v>
+      </c>
+      <c r="BH558" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI558" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="BJ558" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="8">
+        <v>44699.43391979167</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C559" s="2">
+        <v>5.1913397E7</v>
+      </c>
+      <c r="D559" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G559" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I559" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J559" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L559" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N559" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="O559" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P559" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q559" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="R559" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="S559" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="AO559" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP559" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ559" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AR559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ559" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC559" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE559" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF559" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG559" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="BH559" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI559" s="2">
+        <v>3485.0</v>
+      </c>
+      <c r="BJ559" s="2">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="8">
+        <v>44699.45342987269</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C560" s="2">
+        <v>1.124478159E9</v>
+      </c>
+      <c r="D560" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G560" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I560" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J560" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO560" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP560" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AQ560" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="AR560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA560" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD560" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE560" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF560" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG560" s="2">
+        <v>194.0</v>
+      </c>
+      <c r="BH560" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI560" s="2">
+        <v>767.0</v>
+      </c>
+      <c r="BJ560" s="2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="8">
+        <v>44699.46677298611</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C561" s="2">
+        <v>5.1851448E7</v>
+      </c>
+      <c r="D561" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G561" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I561" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J561" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L561" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="N561" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="O561" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="P561" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q561" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="R561" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S561" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AO561" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP561" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ561" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AR561" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB561" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC561" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD561" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="BE561" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF561" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG561" s="2">
+        <v>219.0</v>
+      </c>
+      <c r="BH561" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI561" s="2">
+        <v>3330.0</v>
+      </c>
+      <c r="BJ561" s="2">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="8">
+        <v>44699.47113907407</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C562" s="2">
+        <v>8788827.0</v>
+      </c>
+      <c r="D562" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G562" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I562" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J562" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L562" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="N562" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="O562" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P562" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q562" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R562" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S562" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO562" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP562" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AQ562" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB562" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC562" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD562" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE562" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF562" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG562" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="BH562" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI562" s="2">
+        <v>3067.0</v>
+      </c>
+      <c r="BJ562" s="2">
+        <v>106.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="8">
+        <v>44699.50363998843</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C563" s="2">
+        <v>8.7941933E7</v>
+      </c>
+      <c r="D563" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G563" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H563" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I563" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J563" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K563" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO563" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP563" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AQ563" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AR563" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU563" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC563" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE563" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF563" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG563" s="2">
+        <v>198.0</v>
+      </c>
+      <c r="BH563" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI563" s="2">
+        <v>1275.0</v>
+      </c>
+      <c r="BJ563" s="2">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="8">
+        <v>44699.50741651621</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C564" s="2">
+        <v>9.8429146E7</v>
+      </c>
+      <c r="D564" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G564" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I564" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J564" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO564" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP564" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AR564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB564" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC564" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE564" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF564" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG564" s="2">
+        <v>202.0</v>
+      </c>
+      <c r="BH564" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI564" s="2">
+        <v>1851.0</v>
+      </c>
+      <c r="BJ564" s="2">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="8">
+        <v>44699.57646732639</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C565" s="2">
+        <v>1.2964794E7</v>
+      </c>
+      <c r="D565" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G565" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I565" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J565" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO565" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP565" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AQ565" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AR565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ565" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC565" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD565" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="BE565" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF565" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG565" s="2">
+        <v>202.0</v>
+      </c>
+      <c r="BH565" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI565" s="2">
+        <v>1800.0</v>
+      </c>
+      <c r="BJ565" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="8">
+        <v>44699.60614222223</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C566" s="2">
+        <v>4.3670828E7</v>
+      </c>
+      <c r="D566" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G566" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I566" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J566" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L566" s="2">
+        <v>124.0</v>
+      </c>
+      <c r="N566" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O566" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="P566" s="2">
+        <v>111.0</v>
+      </c>
+      <c r="Q566" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="R566" s="2">
+        <v>124.0</v>
+      </c>
+      <c r="S566" s="2">
+        <v>113.0</v>
+      </c>
+      <c r="AO566" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP566" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ566" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AR566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC566" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD566" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="BE566" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF566" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG566" s="2">
+        <v>243.0</v>
+      </c>
+      <c r="BH566" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI566" s="2">
+        <v>3456.0</v>
+      </c>
+      <c r="BJ566" s="2">
+        <v>164.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="8">
+        <v>44699.607695300925</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C567" s="2">
+        <v>3.2843118E7</v>
+      </c>
+      <c r="D567" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G567" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I567" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J567" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO567" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP567" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AR567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA567" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC567" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE567" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF567" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG567" s="2">
+        <v>249.0</v>
+      </c>
+      <c r="BH567" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI567" s="2">
+        <v>3600.0</v>
+      </c>
+      <c r="BJ567" s="2">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="8">
+        <v>44699.649994884254</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C568" s="2">
+        <v>2.7500394E7</v>
+      </c>
+      <c r="D568" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G568" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I568" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J568" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L568" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="N568" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O568" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P568" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q568" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R568" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S568" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO568" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP568" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AQ568" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AR568" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB568" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC568" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD568" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="BE568" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF568" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG568" s="2">
+        <v>200.0</v>
+      </c>
+      <c r="BH568" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI568" s="2">
+        <v>1642.0</v>
+      </c>
+      <c r="BJ568" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="8">
+        <v>44699.660970625</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C569" s="2">
+        <v>3.1165017E7</v>
+      </c>
+      <c r="D569" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G569" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I569" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J569" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L569" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N569" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O569" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P569" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q569" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R569" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S569" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO569" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP569" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AQ569" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AR569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB569" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC569" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE569" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF569" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG569" s="2">
+        <v>188.0</v>
+      </c>
+      <c r="BH569" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI569" s="2">
+        <v>420.0</v>
+      </c>
+      <c r="BJ569" s="2">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="8">
+        <v>44699.667209004634</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C570" s="2">
+        <v>3.14955E7</v>
+      </c>
+      <c r="D570" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G570" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I570" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J570" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L570" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N570" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O570" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P570" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q570" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="R570" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S570" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AO570" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP570" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AQ570" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AR570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC570" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD570" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="BE570" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF570" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG570" s="2">
+        <v>185.0</v>
+      </c>
+      <c r="BH570" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI570" s="2">
+        <v>700.0</v>
+      </c>
+      <c r="BJ570" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="8">
+        <v>44699.734225312495</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C571" s="2">
+        <v>9.3355515E7</v>
+      </c>
+      <c r="D571" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G571" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I571" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J571" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L571" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N571" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O571" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P571" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q571" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="R571" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="S571" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AO571" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP571" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="AR571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS571" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB571" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC571" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE571" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="BF571" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG571" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="BH571" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI571" s="2">
+        <v>3400.0</v>
+      </c>
+      <c r="BJ571" s="2">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="8">
+        <v>44699.83498023148</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C572" s="2">
+        <v>3.6155433E7</v>
+      </c>
+      <c r="D572" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G572" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I572" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J572" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L572" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N572" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O572" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P572" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q572" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="R572" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S572" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO572" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP572" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AR572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA572" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB572" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC572" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE572" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF572" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG572" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="BH572" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI572" s="2">
+        <v>1384.0</v>
+      </c>
+      <c r="BJ572" s="2">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="8">
+        <v>44699.867210763885</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C573" s="2">
+        <v>6.6938362E7</v>
+      </c>
+      <c r="D573" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G573" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I573" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J573" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L573" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="N573" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="O573" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P573" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q573" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="R573" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S573" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO573" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP573" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AQ573" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AR573" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS573" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA573" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC573" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD573" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="BE573" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF573" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG573" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="BH573" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI573" s="2">
+        <v>210.0</v>
+      </c>
+      <c r="BJ573" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="8">
+        <v>44699.87109359953</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C574" s="2">
+        <v>6763934.0</v>
+      </c>
+      <c r="D574" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G574" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I574" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J574" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L574" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="N574" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O574" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="P574" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="Q574" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="R574" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S574" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AO574" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP574" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AQ574" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AR574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA574" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC574" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD574" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="BE574" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="BF574" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG574" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="BH574" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI574" s="2">
+        <v>1800.0</v>
+      </c>
+      <c r="BJ574" s="2">
+        <v>85.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="8">
+        <v>44699.98202707176</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C575" s="2">
+        <v>1.3833672E7</v>
+      </c>
+      <c r="D575" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G575" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I575" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J575" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L575" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="N575" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O575" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P575" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q575" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="R575" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="S575" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO575" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP575" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AR575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC575" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE575" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF575" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG575" s="2">
+        <v>102.0</v>
+      </c>
+      <c r="BH575" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI575" s="2">
+        <v>4536.0</v>
+      </c>
+      <c r="BJ575" s="2">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="8">
+        <v>44700.35654388889</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C576" s="2">
+        <v>5.4256771E7</v>
+      </c>
+      <c r="D576" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G576" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I576" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J576" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L576" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="N576" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="O576" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P576" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Q576" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="R576" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="S576" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO576" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP576" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AQ576" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AR576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ576" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA576" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC576" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD576" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE576" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF576" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG576" s="2">
+        <v>245.0</v>
+      </c>
+      <c r="BH576" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI576" s="2">
+        <v>911.0</v>
+      </c>
+      <c r="BJ576" s="2">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="8">
+        <v>44700.38918832176</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C577" s="2">
+        <v>4.3546249E7</v>
+      </c>
+      <c r="D577" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G577" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I577" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J577" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L577" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N577" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="O577" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P577" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q577" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="R577" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S577" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO577" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP577" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AQ577" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AR577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BB577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC577" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD577" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="BE577" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF577" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG577" s="2">
+        <v>242.0</v>
+      </c>
+      <c r="BH577" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BI577" s="2">
+        <v>2000.0</v>
+      </c>
+      <c r="BJ577" s="2">
+        <v>38.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -69359,6 +77352,23 @@
     <row r="219"/>
     <row r="220"/>
     <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
   </sheetData>
   <drawing r:id="rId2"/>
 </worksheet>
